--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-392730.6875094586</v>
+        <v>-395219.4265389746</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>215.3058793655487</v>
+        <v>89.480461472145</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>166.4311843675433</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>31.95340287568538</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>15.33854647026065</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>50.04052206184424</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>133.6678680078464</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1102,7 +1102,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>53.4522744295482</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,10 +1187,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>212.1989152844486</v>
+        <v>48.52634901049003</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>106.7082616683667</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>200.889984852083</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>126.1348013633952</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365869</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,10 +1667,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>130.4114987159152</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>105.3305008047039</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>97.22826981530105</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>212.5602966632236</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.286704964147</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>180.1003471321691</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>161.9488727106797</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>60.86846495359764</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>210.0080582894229</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>63.841556412593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545299</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1736.589769957181</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C2" t="n">
-        <v>1367.627253016769</v>
+        <v>942.9472709150275</v>
       </c>
       <c r="D2" t="n">
-        <v>1009.361554410019</v>
+        <v>584.6815723082771</v>
       </c>
       <c r="E2" t="n">
-        <v>623.5733018117744</v>
+        <v>198.8933197100328</v>
       </c>
       <c r="F2" t="n">
-        <v>623.5733018117744</v>
+        <v>198.8933197100328</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2513.328941997114</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2513.328941997114</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>2123.189610021303</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686074</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064749</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>994.2880032601529</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>825.351820332246</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4516,22 +4516,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1673.251768137125</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1418.567279931238</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1129.150109894277</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X4" t="n">
-        <v>901.1605589962596</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.3679798527295</v>
+        <v>1162.400310702116</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1648.00486941082</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1279.042352470409</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>920.7766538636581</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>534.9884012654138</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>124.0024964758063</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3164.769171255616</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474942</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>907.5789065943389</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>907.5789065943389</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
         <v>772.5608581015648</v>
@@ -4720,7 +4720,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1783.471894452538</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1783.471894452538</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1783.471894452538</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1783.471894452538</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.361036635886</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X7" t="n">
-        <v>1128.371485737869</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>907.5789065943389</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2794.995066849327</v>
+        <v>2706.790414642315</v>
       </c>
       <c r="W8" t="n">
-        <v>2442.226411579212</v>
+        <v>2354.0217593722</v>
       </c>
       <c r="X8" t="n">
-        <v>2068.760653318132</v>
+        <v>1980.556001111121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1678.62132134232</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>712.6441443736238</v>
+        <v>699.4849621798493</v>
       </c>
       <c r="C10" t="n">
-        <v>712.6441443736238</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D10" t="n">
-        <v>712.6441443736238</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>564.7310507912307</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>417.8411032933203</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.843444452132</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.426274415171</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>933.436723517154</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y10" t="n">
-        <v>712.6441443736238</v>
+        <v>699.4849621798493</v>
       </c>
     </row>
     <row r="11">
@@ -5021,52 +5021,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>768.538088945963</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>768.538088945963</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>618.4214495336272</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>470.5083559512341</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1398.96868381775</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>1170.979132919733</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>950.1865537762027</v>
       </c>
     </row>
     <row r="14">
@@ -5270,52 +5270,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>702.4944101284095</v>
+        <v>916.3099000622284</v>
       </c>
       <c r="C16" t="n">
-        <v>533.5582272005026</v>
+        <v>747.3737171343215</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>597.2570777219858</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>449.3439841395926</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176863</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970976</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934015</v>
       </c>
       <c r="X16" t="n">
-        <v>1104.935454102179</v>
+        <v>1318.750944035998</v>
       </c>
       <c r="Y16" t="n">
-        <v>884.1428749586493</v>
+        <v>1097.958364892468</v>
       </c>
     </row>
     <row r="17">
@@ -5510,19 +5510,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1029.681434529215</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>860.7452516013086</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6286121889729</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7155186065797</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8255711086694</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359455</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1211.329899359455</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811332</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532263</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.7540666811332</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,22 +6005,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2283.378363670483</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2063.776898693424</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1774.701672037622</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1520.017183831735</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1230.600013794774</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>1002.610462896757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>781.8178837532264</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1182.055381897054</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>961.2628027535235</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2382.47666296148</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2162.875197984421</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1873.799971328619</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1619.115483122732</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,25 +7014,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7157,52 +7157,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7400,7 +7400,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7549,13 +7549,13 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7816,7 +7816,7 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382518</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.207249639645195e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>72.22790573563391</v>
+        <v>198.0533236290434</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>19.28624665953603</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229328</v>
+        <v>15.00954930701607</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>68.2958684769678</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>73.62417772602058</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.297948387947827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>106.084127257075</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>19.07741329096487</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>191.2691783702303</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>15.70159709961428</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>117.1847295890516</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-3.288480726625471e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26314,19 +26314,19 @@
         <v>251542.9259350416</v>
       </c>
       <c r="C2" t="n">
+        <v>287364.6194524992</v>
+      </c>
+      <c r="D2" t="n">
         <v>287364.6194524993</v>
-      </c>
-      <c r="D2" t="n">
-        <v>287364.6194524991</v>
       </c>
       <c r="E2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.309891502</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="H2" t="n">
         <v>282501.3098915023</v>
@@ -26335,10 +26335,10 @@
         <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="L2" t="n">
         <v>282501.3098915021</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33767.20391572765</v>
+        <v>33767.20391572734</v>
       </c>
       <c r="C4" t="n">
         <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818179</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,16 +26433,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683041</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26451,10 +26451,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="P4" t="n">
         <v>20987.7234099239</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1218902.964269672</v>
+        <v>-1219158.833509082</v>
       </c>
       <c r="C6" t="n">
+        <v>87246.77997292459</v>
+      </c>
+      <c r="D6" t="n">
         <v>87246.77997292424</v>
       </c>
-      <c r="D6" t="n">
-        <v>87246.77997292409</v>
-      </c>
       <c r="E6" t="n">
-        <v>-157030.5458865906</v>
+        <v>-157065.2838120264</v>
       </c>
       <c r="F6" t="n">
-        <v>168381.9159207644</v>
+        <v>168347.177995329</v>
       </c>
       <c r="G6" t="n">
-        <v>168381.9159207646</v>
+        <v>168347.1779953288</v>
       </c>
       <c r="H6" t="n">
-        <v>168381.9159207647</v>
+        <v>168347.177995329</v>
       </c>
       <c r="I6" t="n">
-        <v>168381.9159207646</v>
+        <v>168347.1779953288</v>
       </c>
       <c r="J6" t="n">
-        <v>-49149.28647651272</v>
+        <v>-49184.02440194845</v>
       </c>
       <c r="K6" t="n">
-        <v>168381.9159207646</v>
+        <v>168347.1779953289</v>
       </c>
       <c r="L6" t="n">
-        <v>168381.9159207646</v>
+        <v>168347.1779953288</v>
       </c>
       <c r="M6" t="n">
-        <v>83326.88798525264</v>
+        <v>83292.15005981707</v>
       </c>
       <c r="N6" t="n">
-        <v>168381.9159207646</v>
+        <v>168347.1779953288</v>
       </c>
       <c r="O6" t="n">
         <v>143785.0621950281</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.3879405522709</v>
+        <v>123.387940552265</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>13.40079581439403</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>254.2584353299275</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>395.5831791831928</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>277.7117364082907</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>14.94760501036598</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>136.3167509018937</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>115.5533431856863</v>
+        <v>279.2259094596449</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.31754659066155</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.69466850001183</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28387,10 +28387,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>297.1808238847171</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164387</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,10 +33272,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O30" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,28 +33734,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>697.06562727909</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>159.3393849103582</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066269</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191305</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365645</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317824</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,10 +36920,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O30" t="n">
-        <v>160.8335108287869</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,28 +37382,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>554.9315933570717</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
